--- a/LocalData/killTips.xlsx
+++ b/LocalData/killTips.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="6270"/>
   </bookViews>
   <sheets>
-    <sheet name="Tab_killTips" sheetId="1" r:id="rId1"/>
+    <sheet name="Tab_KillTips" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LocalData/killTips.xlsx
+++ b/LocalData/killTips.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,10 +630,10 @@
         <v>2000</v>
       </c>
       <c r="F5" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G5" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>65100</v>
       </c>
       <c r="C6" s="3">
-        <v>67000</v>
+        <v>70000</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -653,10 +653,10 @@
         <v>2000</v>
       </c>
       <c r="F6" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G6" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -664,10 +664,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>67100</v>
+        <v>71100</v>
       </c>
       <c r="C7" s="3">
-        <v>69000</v>
+        <v>75000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -676,10 +676,10 @@
         <v>2000</v>
       </c>
       <c r="F7" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G7" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -687,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>69100</v>
+        <v>75100</v>
       </c>
       <c r="C8" s="3">
-        <v>71000</v>
+        <v>80000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -699,10 +699,10 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G8" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>71100</v>
+        <v>85100</v>
       </c>
       <c r="C9" s="3">
-        <v>73000</v>
+        <v>90000</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -722,10 +722,10 @@
         <v>2000</v>
       </c>
       <c r="F9" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G9" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -733,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>73100</v>
+        <v>91100</v>
       </c>
       <c r="C10" s="3">
-        <v>75000</v>
+        <v>92000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -745,10 +745,10 @@
         <v>2000</v>
       </c>
       <c r="F10" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G10" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -756,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>75100</v>
+        <v>92100</v>
       </c>
       <c r="C11" s="3">
-        <v>77000</v>
+        <v>95000</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -768,10 +768,10 @@
         <v>2000</v>
       </c>
       <c r="F11" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G11" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>77100</v>
+        <v>95100</v>
       </c>
       <c r="C12" s="3">
-        <v>79000</v>
+        <v>100000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -791,10 +791,10 @@
         <v>2000</v>
       </c>
       <c r="F12" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G12" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -802,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>79100</v>
+        <v>83100</v>
       </c>
       <c r="C13" s="3">
-        <v>81000</v>
+        <v>106400</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -814,10 +814,10 @@
         <v>2000</v>
       </c>
       <c r="F13" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G13" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -825,10 +825,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>81100</v>
+        <v>99700</v>
       </c>
       <c r="C14" s="3">
-        <v>83000</v>
+        <v>111500</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -837,10 +837,10 @@
         <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G14" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -848,10 +848,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>83100</v>
+        <v>123700</v>
       </c>
       <c r="C15" s="3">
-        <v>85000</v>
+        <v>126726</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -860,10 +860,10 @@
         <v>2000</v>
       </c>
       <c r="F15" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G15" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -871,10 +871,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>85100</v>
+        <v>137802</v>
       </c>
       <c r="C16" s="3">
-        <v>87000</v>
+        <v>141857</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -883,10 +883,10 @@
         <v>2000</v>
       </c>
       <c r="F16" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G16" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -894,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>87100</v>
+        <v>151808</v>
       </c>
       <c r="C17" s="3">
-        <v>92000</v>
+        <v>166988</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
@@ -906,10 +906,10 @@
         <v>2000</v>
       </c>
       <c r="F17" s="3">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G17" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/LocalData/killTips.xlsx
+++ b/LocalData/killTips.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>内容</t>
   </si>
@@ -51,10 +51,6 @@
     <t>offSetY</t>
   </si>
   <si>
-    <t>不动如龟击杀了233酱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,47 +75,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小新击杀了安安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新击杀了杀马特</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动如龟大杀特杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新大杀特杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动如龟击杀了小新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动如龟击杀了皇飞熊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动如龟击杀了六得飞起</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动如龟已无人能敌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰日天击杀了不动如龟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰日天成为最强王者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰日天击杀了莫拉斯</t>
+    <t>&lt;color=#51c2ec&gt;不动如龟击&lt;/color&gt;杀了&lt;color=#2cd855&gt;233酱&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟击&lt;/color&gt;杀了&lt;color=#2cd855&gt;233酱&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟&lt;/color&gt;大杀特杀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;小新&lt;/color&gt;大杀特杀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;泰日天&lt;/color&gt;击杀了&lt;color=#2cd855&gt;不动如龟&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;小新&lt;/color&gt;击杀了&lt;color=#2cd855&gt;安安&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;小新&lt;/color&gt;击杀了&lt;color=#2cd855&gt;杀马特&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟&lt;/color&gt;击杀了&lt;color=#2cd855&gt;小新&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟&lt;/color&gt;击杀了&lt;color=#2cd855&gt;皇飞熊&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟&lt;/color&gt;击杀了&lt;color=#2cd855&gt;六得飞起&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;不动如龟&lt;/color&gt;已无人能敌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;泰日天&lt;/color&gt;成为最强王者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#51c2ec&gt;泰日天&lt;/color&gt;击杀了&lt;color=#2cd855&gt;莫拉斯&lt;/color&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,13 +527,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -595,13 +599,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -624,7 +628,7 @@
         <v>65000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>2000</v>
@@ -647,7 +651,7 @@
         <v>70000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <v>2000</v>
@@ -670,7 +674,7 @@
         <v>75000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>2000</v>
@@ -693,7 +697,7 @@
         <v>80000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
@@ -716,7 +720,7 @@
         <v>90000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3">
         <v>2000</v>
@@ -739,7 +743,7 @@
         <v>92000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>2000</v>
@@ -762,7 +766,7 @@
         <v>95000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>2000</v>
@@ -785,7 +789,7 @@
         <v>100000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
         <v>2000</v>
@@ -808,7 +812,7 @@
         <v>106400</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>2000</v>
@@ -831,7 +835,7 @@
         <v>111500</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
         <v>2000</v>
@@ -854,7 +858,7 @@
         <v>126726</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
@@ -877,7 +881,7 @@
         <v>141857</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>2000</v>
@@ -900,7 +904,7 @@
         <v>166988</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>2000</v>
